--- a/数据表/地图.xlsx
+++ b/数据表/地图.xlsx
@@ -49,28 +49,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-基础模型</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -95,11 +73,33 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>需要门票才能进入</t>
+          <t>场景文件</t>
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0">
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+基础模型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="G12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="G13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0">
+    <comment ref="G14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0">
+    <comment ref="G16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,11 +299,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>需要门票</t>
+          <t>需要门票才能进入</t>
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="G17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,11 +333,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>需要门票才能进入</t>
+          <t>需要门票</t>
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="G20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,41 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="0">
+    <comment ref="G21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>需要门票才能进入</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -410,214 +444,214 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>伐木场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>军事基地</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>天文观测站</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>客运港口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>货运港口(集装箱)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>军工厂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>矿山</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>环形山（死火山遗迹)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公园</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>中部交通枢纽(大桥)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>农场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>核电厂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UFO研究所</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>高尔夫球场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>describe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>飞机场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>市区下水道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>圣玛丽医院</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方位图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>西海岸(白色月牙海滩)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>水坝（大峡谷水坝）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>炼钢厂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>炼油厂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>医院</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>陨石坑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>绿洲（沙漠）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>沙漠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格林图斯工业区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>超自然现象研究所</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>郊外小镇(枫树镇/松树镇/松鼠镇)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>市区外围(凤凰城)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>北部山脉(巨人山脉)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>南部灯塔(白色月牙海滩)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方位图，药品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>药品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>各种农民僵尸，牛仔僵尸，工人僵尸，市民僵尸等等</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>工人僵尸，市民僵尸，警察僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>游客僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>游客僵尸，市民僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>核电厂方位图，工人僵尸，变异动物僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方位图，工人僵尸，变异动物僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方位图，火药枪械，工人僵尸，军人僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方位图，各种器械，各种材料，工人僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>工人僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方位图，科学家僵尸，工人僵尸，军人僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>方位图，科学家僵尸，医生僵尸，军人僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>科学家僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>农民僵尸，牛仔僵尸，工人僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>工人僵尸，市民僵尸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>version</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>mapid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>sector_size</t>
@@ -636,7 +670,72 @@
   </si>
   <si>
     <t>避难岛(出生岛)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cene</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ceworld.unity</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceworld.unity</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evel0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.unity</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -646,11 +745,19 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1146,156 +1253,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1636,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1648,13 +1758,13 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="32.375" customWidth="1"/>
-    <col min="7" max="7" width="67.5" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
+    <col min="5" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="67.5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1670,17 +1780,20 @@
       <c r="E1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1696,17 +1809,20 @@
       <c r="E2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1722,17 +1838,20 @@
       <c r="E3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1748,14 +1867,17 @@
       <c r="E4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1771,11 +1893,14 @@
       <c r="E5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1791,14 +1916,17 @@
       <c r="E6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1814,14 +1942,17 @@
       <c r="E7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1837,11 +1968,14 @@
       <c r="E8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1857,11 +1991,14 @@
       <c r="E9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1877,14 +2014,17 @@
       <c r="E10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1900,17 +2040,20 @@
       <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1926,17 +2069,20 @@
       <c r="E12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1952,17 +2098,20 @@
       <c r="E13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1978,17 +2127,20 @@
       <c r="E14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2004,14 +2156,17 @@
       <c r="E15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2027,14 +2182,17 @@
       <c r="E16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2050,14 +2208,17 @@
       <c r="E17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2073,14 +2234,17 @@
       <c r="E18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2096,14 +2260,17 @@
       <c r="E19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2119,14 +2286,17 @@
       <c r="E20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2142,14 +2312,17 @@
       <c r="E21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2165,14 +2338,17 @@
       <c r="E22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
         <v>5</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2188,14 +2364,17 @@
       <c r="E23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
         <v>4</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2211,14 +2390,17 @@
       <c r="E24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2234,11 +2416,14 @@
       <c r="E25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2254,14 +2439,17 @@
       <c r="E26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
         <v>24</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2277,11 +2465,14 @@
       <c r="E27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2297,11 +2488,14 @@
       <c r="E28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2317,11 +2511,14 @@
       <c r="E29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2337,14 +2534,17 @@
       <c r="E30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2360,14 +2560,17 @@
       <c r="E31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2383,14 +2586,17 @@
       <c r="E32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2406,15 +2612,18 @@
       <c r="E33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2429,7 +2638,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2443,7 +2652,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
